--- a/APM files/133705288/Book1.xlsx
+++ b/APM files/133705288/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/133705288/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAAC54F4-A932-C448-979D-E7C73C7BD936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE90157-0476-FE4A-A10E-5D74AB21E4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{51693BCF-F51D-034A-BBBF-ADA85644D859}"/>
+    <workbookView xWindow="21140" yWindow="4320" windowWidth="28040" windowHeight="17440" xr2:uid="{51693BCF-F51D-034A-BBBF-ADA85644D859}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,6 +430,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>42882384</v>
+      </c>
       <c r="B2">
         <v>1257810</v>
       </c>
@@ -459,11 +462,15 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>45407267</v>
+      </c>
       <c r="B6">
         <v>1257434</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>